--- a/Data/4. Visual census/Species Biomass Weight/Similar_biomass.xlsx
+++ b/Data/4. Visual census/Species Biomass Weight/Similar_biomass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremycarlot/Documents/Post-Doc – LOV/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremycarlot/Documents/Post-Doc – LOV/Projets/Villefranche/Projets/BenthFun – Jeremy/BenthFun/Data/4. Visual census/Species Biomass Weight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718C591F-79AD-B449-8D5F-988000C33336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3986CF33-529E-1343-BAA6-6A59C8824649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49160" yWindow="2320" windowWidth="39960" windowHeight="23620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="59740" yWindow="1040" windowWidth="39960" windowHeight="23620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -343,7 +343,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +368,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -383,7 +389,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -394,6 +399,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -717,7 +725,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -727,29 +735,29 @@
     <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -763,7 +771,7 @@
       <c r="C2">
         <v>2.8571428571428572</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2" t="s">
@@ -775,7 +783,7 @@
       <c r="G2" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -789,7 +797,7 @@
       <c r="C3">
         <v>5.7142857142857144</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3" t="s">
@@ -801,59 +809,59 @@
       <c r="G3" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
         <v>1.4285714285714286</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
         <v>81</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
         <v>4.2857142857142856</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -867,7 +875,7 @@
       <c r="C6">
         <v>1.4285714285714286</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
@@ -879,7 +887,7 @@
       <c r="G6" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -893,7 +901,7 @@
       <c r="C7">
         <v>1.4285714285714286</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>26</v>
       </c>
       <c r="E7" t="s">
@@ -905,7 +913,7 @@
       <c r="G7" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -919,7 +927,7 @@
       <c r="C8">
         <v>4.2857142857142856</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="E8" t="s">
@@ -931,7 +939,7 @@
       <c r="G8" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -945,7 +953,7 @@
       <c r="C9">
         <v>7.1428571428571423</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>27</v>
       </c>
       <c r="E9" t="s">
@@ -957,7 +965,7 @@
       <c r="G9" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -971,7 +979,7 @@
       <c r="C10">
         <v>1.4285714285714286</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>29</v>
       </c>
       <c r="E10" t="s">
@@ -983,7 +991,7 @@
       <c r="G10" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -997,7 +1005,7 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="s">
@@ -1009,7 +1017,7 @@
       <c r="G11" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1023,7 +1031,7 @@
       <c r="C12">
         <v>1.4285714285714286</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>31</v>
       </c>
       <c r="E12" t="s">
@@ -1035,7 +1043,7 @@
       <c r="G12" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1049,7 +1057,7 @@
       <c r="C13">
         <v>24.285714285714285</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>32</v>
       </c>
       <c r="E13" t="s">
@@ -1061,7 +1069,7 @@
       <c r="G13" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1075,7 +1083,7 @@
       <c r="C14">
         <v>7.1428571428571423</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>33</v>
       </c>
       <c r="E14" t="s">
@@ -1087,7 +1095,7 @@
       <c r="G14" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1101,7 +1109,7 @@
       <c r="C15">
         <v>2.8571428571428572</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>34</v>
       </c>
       <c r="E15" t="s">
@@ -1113,33 +1121,33 @@
       <c r="G15" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
         <v>1.4285714285714286</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
         <v>87</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1153,7 +1161,7 @@
       <c r="C17">
         <v>30</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>36</v>
       </c>
       <c r="E17" t="s">
@@ -1165,7 +1173,7 @@
       <c r="G17" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1179,7 +1187,7 @@
       <c r="C18">
         <v>18.571428571428573</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>37</v>
       </c>
       <c r="E18" t="s">
@@ -1191,7 +1199,7 @@
       <c r="G18" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1205,7 +1213,7 @@
       <c r="C19">
         <v>2.8571428571428572</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="E19" t="s">
@@ -1217,7 +1225,7 @@
       <c r="G19" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1231,7 +1239,7 @@
       <c r="C20">
         <v>8.5714285714285712</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>39</v>
       </c>
       <c r="E20" t="s">
@@ -1243,7 +1251,7 @@
       <c r="G20" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1257,7 +1265,7 @@
       <c r="C21">
         <v>2.8571428571428572</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>40</v>
       </c>
       <c r="E21" t="s">
@@ -1269,7 +1277,7 @@
       <c r="G21" t="s">
         <v>82</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1283,7 +1291,7 @@
       <c r="C22">
         <v>34.285714285714285</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>41</v>
       </c>
       <c r="E22" t="s">
@@ -1295,7 +1303,7 @@
       <c r="G22" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1309,7 +1317,7 @@
       <c r="C23">
         <v>4.2857142857142856</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>42</v>
       </c>
       <c r="E23" t="s">
@@ -1321,7 +1329,7 @@
       <c r="G23" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="5" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1335,7 +1343,7 @@
       <c r="C24">
         <v>5.7142857142857144</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>43</v>
       </c>
       <c r="E24" t="s">
@@ -1347,7 +1355,7 @@
       <c r="G24" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1361,7 +1369,7 @@
       <c r="C25">
         <v>1.4285714285714286</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>44</v>
       </c>
       <c r="E25" t="s">
@@ -1373,7 +1381,7 @@
       <c r="G25" t="s">
         <v>80</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1387,7 +1395,7 @@
       <c r="C26">
         <v>1.4285714285714286</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>45</v>
       </c>
       <c r="E26" t="s">
@@ -1399,7 +1407,7 @@
       <c r="G26" t="s">
         <v>80</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="5" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1413,7 +1421,7 @@
       <c r="C27">
         <v>11.428571428571429</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>46</v>
       </c>
       <c r="E27" t="s">
@@ -1425,59 +1433,59 @@
       <c r="G27" t="s">
         <v>88</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="1">
-        <v>20</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="1">
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29">
         <v>2.8571428571428572</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1" t="s">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="s">
         <v>79</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1491,7 +1499,7 @@
       <c r="C30">
         <v>4.2857142857142856</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>49</v>
       </c>
       <c r="E30" t="s">
@@ -1503,7 +1511,7 @@
       <c r="G30" t="s">
         <v>85</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1517,7 +1525,7 @@
       <c r="C31">
         <v>2.8571428571428572</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>50</v>
       </c>
       <c r="E31" t="s">
@@ -1529,7 +1537,7 @@
       <c r="G31" t="s">
         <v>89</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1543,7 +1551,7 @@
       <c r="C32">
         <v>2.8571428571428572</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>51</v>
       </c>
       <c r="E32" t="s">
@@ -1555,7 +1563,7 @@
       <c r="G32" t="s">
         <v>82</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1569,7 +1577,7 @@
       <c r="C33">
         <v>18.571428571428573</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>52</v>
       </c>
       <c r="E33" t="s">
@@ -1581,7 +1589,7 @@
       <c r="G33" t="s">
         <v>82</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1595,7 +1603,7 @@
       <c r="C34">
         <v>1.4285714285714286</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>53</v>
       </c>
       <c r="E34" t="s">
@@ -1607,7 +1615,7 @@
       <c r="G34" t="s">
         <v>89</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1621,7 +1629,7 @@
       <c r="C35">
         <v>2.8571428571428572</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>54</v>
       </c>
       <c r="E35" t="s">
@@ -1633,7 +1641,7 @@
       <c r="G35" t="s">
         <v>79</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1647,7 +1655,7 @@
       <c r="C36">
         <v>0</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>55</v>
       </c>
       <c r="E36" t="s">
@@ -1659,7 +1667,7 @@
       <c r="G36" t="s">
         <v>79</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1673,7 +1681,7 @@
       <c r="C37">
         <v>2.8571428571428572</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>56</v>
       </c>
       <c r="E37" t="s">
@@ -1685,7 +1693,7 @@
       <c r="G37" t="s">
         <v>86</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1699,7 +1707,7 @@
       <c r="C38">
         <v>90</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>57</v>
       </c>
       <c r="E38" t="s">
@@ -1711,59 +1719,59 @@
       <c r="G38" t="s">
         <v>85</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="1">
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
         <v>1.4285714285714286</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1" t="s">
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
         <v>90</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="H39" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="1">
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40">
         <v>8.5714285714285712</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>74</v>
       </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1" t="s">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
         <v>82</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="H40" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1777,7 +1785,7 @@
       <c r="C41">
         <v>7.1428571428571423</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>60</v>
       </c>
       <c r="E41" t="s">
@@ -1789,7 +1797,7 @@
       <c r="G41" t="s">
         <v>88</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1803,7 +1811,7 @@
       <c r="C42">
         <v>11.428571428571429</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>61</v>
       </c>
       <c r="E42" t="s">
@@ -1815,33 +1823,33 @@
       <c r="G42" t="s">
         <v>86</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="1">
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
         <v>5.7142857142857144</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>72</v>
       </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1" t="s">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
         <v>86</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1855,7 +1863,7 @@
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>63</v>
       </c>
       <c r="E44" t="s">
@@ -1867,7 +1875,7 @@
       <c r="G44" t="s">
         <v>85</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1881,7 +1889,7 @@
       <c r="C45">
         <v>5.7142857142857144</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>64</v>
       </c>
       <c r="E45" t="s">
@@ -1893,7 +1901,7 @@
       <c r="G45" t="s">
         <v>86</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1907,7 +1915,7 @@
       <c r="C46">
         <v>45.714285714285715</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>65</v>
       </c>
       <c r="E46" t="s">
@@ -1919,33 +1927,33 @@
       <c r="G46" t="s">
         <v>86</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H46" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="1">
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
         <v>25.714285714285712</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>66</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="1">
-        <v>1</v>
-      </c>
-      <c r="G47" s="1" t="s">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
         <v>86</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1959,7 +1967,7 @@
       <c r="C48">
         <v>7.1428571428571423</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>67</v>
       </c>
       <c r="E48" t="s">
@@ -1971,7 +1979,7 @@
       <c r="G48" t="s">
         <v>82</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -1985,7 +1993,7 @@
       <c r="C49">
         <v>0</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>68</v>
       </c>
       <c r="E49" t="s">
@@ -1997,7 +2005,7 @@
       <c r="G49" t="s">
         <v>91</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2011,7 +2019,7 @@
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>69</v>
       </c>
       <c r="E50" t="s">
@@ -2023,7 +2031,7 @@
       <c r="G50" t="s">
         <v>80</v>
       </c>
-      <c r="H50" s="4" t="s">
+      <c r="H50" s="3" t="s">
         <v>22</v>
       </c>
     </row>
